--- a/NavnitaMandal_TestAssesment_task1_damco.xlsx
+++ b/NavnitaMandal_TestAssesment_task1_damco.xlsx
@@ -383,9 +383,6 @@
     <t>TC_17</t>
   </si>
   <si>
-    <t>TC_18</t>
-  </si>
-  <si>
     <t>verify whether the user is able to able to search workspace which do
  not allow smoking</t>
   </si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>Review By:</t>
+  </si>
+  <si>
+    <t>TC_19</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,22 +599,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -647,7 +647,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE57C944-0273-4E7C-B33B-5678DEB63F5D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE57C944-0273-4E7C-B33B-5678DEB63F5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,7 +690,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D56A0C6-3528-4564-BD4D-679FE5281DD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D56A0C6-3528-4564-BD4D-679FE5281DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +733,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE5DE6AE-BDBD-46F7-91FD-274FC0199C0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5DE6AE-BDBD-46F7-91FD-274FC0199C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +819,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D3E3AB4-586A-4729-BF74-DE88F8DCFE91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3E3AB4-586A-4729-BF74-DE88F8DCFE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +862,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D46B208E-7CF1-4CF4-A5ED-5FEF3C53B3F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46B208E-7CF1-4CF4-A5ED-5FEF3C53B3F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
         <xdr:cNvPr id="9" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{873FE027-3C74-441A-9EB6-7B32AD3CCE88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873FE027-3C74-441A-9EB6-7B32AD3CCE88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +948,7 @@
         <xdr:cNvPr id="10" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4540169-FD3B-46C0-AC5C-AE8AE8CB2DFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4540169-FD3B-46C0-AC5C-AE8AE8CB2DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="11" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130D9255-5084-4408-9A31-F665A5681DFD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130D9255-5084-4408-9A31-F665A5681DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1034,7 @@
         <xdr:cNvPr id="12" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70350E1-9BB4-4DDD-A183-A043F1BED4F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70350E1-9BB4-4DDD-A183-A043F1BED4F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1077,7 @@
         <xdr:cNvPr id="13" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF755AB-12AD-4900-8AF2-DF83F4F8F7BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF755AB-12AD-4900-8AF2-DF83F4F8F7BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1120,7 @@
         <xdr:cNvPr id="14" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B0C0D8E-0B06-4182-AFD7-183C399D1AD6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C0D8E-0B06-4182-AFD7-183C399D1AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="15" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{388F64BC-838F-44BB-AB2F-04D893472C14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388F64BC-838F-44BB-AB2F-04D893472C14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="16" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{019383F2-9CB4-456C-A647-AB04629A7CAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019383F2-9CB4-456C-A647-AB04629A7CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1249,7 @@
         <xdr:cNvPr id="17" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09DBAE23-377B-4878-B48C-7740ED2651C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DBAE23-377B-4878-B48C-7740ED2651C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1292,7 @@
         <xdr:cNvPr id="18" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E3879B4-38E4-4765-A5FE-20EE500AB530}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3879B4-38E4-4765-A5FE-20EE500AB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="19" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82F163F8-7C0C-4802-849A-949E74E6941B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F163F8-7C0C-4802-849A-949E74E6941B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
         <xdr:cNvPr id="20" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08C1C566-164B-45E8-B744-2099022F9C16}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C1C566-164B-45E8-B744-2099022F9C16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
         <xdr:cNvPr id="21" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D2F4BD-8C31-45B3-8273-2BAE67B04992}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D2F4BD-8C31-45B3-8273-2BAE67B04992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
         <xdr:cNvPr id="22" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740A5CC7-56E4-4A79-9671-98D348C52FD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740A5CC7-56E4-4A79-9671-98D348C52FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="23" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5141DB7C-C081-403A-9FB7-0C53A2C39005}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5141DB7C-C081-403A-9FB7-0C53A2C39005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="24" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE2AE468-267F-40B2-B381-0362283D2B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2AE468-267F-40B2-B381-0362283D2B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="25" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B700D68E-ADB4-4210-8F1B-5E6AC95B7284}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B700D68E-ADB4-4210-8F1B-5E6AC95B7284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="26" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68560F58-42B3-4486-95ED-033E2F9AA067}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68560F58-42B3-4486-95ED-033E2F9AA067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="27" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C777869F-3EC2-4B83-A31E-A4E109929E9E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C777869F-3EC2-4B83-A31E-A4E109929E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1722,7 @@
         <xdr:cNvPr id="28" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E835154-53A1-4132-9681-1D5324292E45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E835154-53A1-4132-9681-1D5324292E45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56F24673-5A6E-45C1-A184-7A04A1210751}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F24673-5A6E-45C1-A184-7A04A1210751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA22B65E-9545-4DD9-9BF0-05FA7B678B7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22B65E-9545-4DD9-9BF0-05FA7B678B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1851,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{062BA546-3339-4A56-AA13-432D3AC2D9AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062BA546-3339-4A56-AA13-432D3AC2D9AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BFAAA0B-ABC8-4BD1-9572-4E3248EBFCA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFAAA0B-ABC8-4BD1-9572-4E3248EBFCA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1937,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5A3095B-1A39-4A47-8C0C-36254D396995}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A3095B-1A39-4A47-8C0C-36254D396995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1980,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F4799E5-3967-4721-9964-82FB0D8215F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4799E5-3967-4721-9964-82FB0D8215F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D91DD3D-611E-42AC-9A06-A5ECE4E24539}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D91DD3D-611E-42AC-9A06-A5ECE4E24539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC3E7D7C-27B3-4862-B9A8-A03A380F137C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3E7D7C-27B3-4862-B9A8-A03A380F137C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2109,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F64AA509-E473-4B86-B485-A338413DC484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64AA509-E473-4B86-B485-A338413DC484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5E15D53-DE21-446D-8145-91A41FD098A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E15D53-DE21-446D-8145-91A41FD098A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2195,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3520299-071B-4310-A0C2-DF2D5BCE111D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3520299-071B-4310-A0C2-DF2D5BCE111D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2238,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F0BB91-559E-4478-9375-6DA9DA5DFDCF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F0BB91-559E-4478-9375-6DA9DA5DFDCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2281,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FEF7B0E-6F4D-483E-95E9-22BAC1F4FD7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEF7B0E-6F4D-483E-95E9-22BAC1F4FD7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2324,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4FF23F-C99D-49C6-A3EB-4DC439E2DE67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4FF23F-C99D-49C6-A3EB-4DC439E2DE67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2367,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC743A88-C040-4941-9E0D-004735D24DF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC743A88-C040-4941-9E0D-004735D24DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{201C49C6-AB27-4689-A0FB-83BE15231D6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201C49C6-AB27-4689-A0FB-83BE15231D6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2B4C9B-C348-4EC5-9147-234D2A81322F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2B4C9B-C348-4EC5-9147-234D2A81322F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2503,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2ED70D5-FA19-4581-A6B8-060841CBA041}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ED70D5-FA19-4581-A6B8-060841CBA041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2546,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B29546B-2687-4DBE-B5E1-D348C0EF3553}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B29546B-2687-4DBE-B5E1-D348C0EF3553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2589,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649BD85E-EBA3-4538-8AAB-FFA7FEA4193B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649BD85E-EBA3-4538-8AAB-FFA7FEA4193B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2639,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF2E17FE-1D82-4146-A840-2307B45665C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2E17FE-1D82-4146-A840-2307B45665C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2682,7 @@
         <xdr:cNvPr id="50" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A968AAC-1134-47FF-A640-EBD3A700D9D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A968AAC-1134-47FF-A640-EBD3A700D9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2725,7 @@
         <xdr:cNvPr id="51" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0816B9-8FCA-43D1-8421-684A54031429}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0816B9-8FCA-43D1-8421-684A54031429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
         <xdr:cNvPr id="52" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{796AEC97-C755-446B-9A8F-2CBD6A8D9D7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796AEC97-C755-446B-9A8F-2CBD6A8D9D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2811,7 @@
         <xdr:cNvPr id="53" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29F2248-FB9B-4C05-AB34-BFA5EB67C0E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29F2248-FB9B-4C05-AB34-BFA5EB67C0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2854,7 @@
         <xdr:cNvPr id="54" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DE6CDD-0A1C-43CA-8BFC-FCD95C28E272}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DE6CDD-0A1C-43CA-8BFC-FCD95C28E272}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="55" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D469670A-334A-465A-B70A-847BF720CF45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D469670A-334A-465A-B70A-847BF720CF45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2947,7 @@
         <xdr:cNvPr id="56" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB87069B-285F-4873-96D1-68765D5B7199}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB87069B-285F-4873-96D1-68765D5B7199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +2990,7 @@
         <xdr:cNvPr id="57" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADCD786-E2C0-4309-8984-AC2F567EFFBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADCD786-E2C0-4309-8984-AC2F567EFFBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,7 +3033,7 @@
         <xdr:cNvPr id="58" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CF40A6B-58C1-4CF1-B4D9-541638030A1F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF40A6B-58C1-4CF1-B4D9-541638030A1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3076,7 @@
         <xdr:cNvPr id="59" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E22C7D8-9926-4623-A464-1EC6CB36BBFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E22C7D8-9926-4623-A464-1EC6CB36BBFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="60" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE52354-7AD5-400F-BC37-86108A27664A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE52354-7AD5-400F-BC37-86108A27664A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="61" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41801BC5-4B84-4001-87DB-48681E472183}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41801BC5-4B84-4001-87DB-48681E472183}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3205,7 @@
         <xdr:cNvPr id="62" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D68F7D6-CE1C-4A0E-947A-6B2789337210}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D68F7D6-CE1C-4A0E-947A-6B2789337210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3248,7 @@
         <xdr:cNvPr id="63" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB08C16B-954C-4AE0-9A6C-E50A01C019BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB08C16B-954C-4AE0-9A6C-E50A01C019BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3291,7 +3291,7 @@
         <xdr:cNvPr id="64" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5101DE46-1B33-41DF-8432-72B9CE461FE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5101DE46-1B33-41DF-8432-72B9CE461FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
         <xdr:cNvPr id="65" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29AC59E-6F1E-444E-A859-300F21721082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29AC59E-6F1E-444E-A859-300F21721082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3384,7 @@
         <xdr:cNvPr id="66" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32517EAC-9168-4C2B-ABC4-56AEAF63F78C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32517EAC-9168-4C2B-ABC4-56AEAF63F78C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3427,7 @@
         <xdr:cNvPr id="67" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19C7D459-F2E8-4B36-892B-490B13E2C5BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C7D459-F2E8-4B36-892B-490B13E2C5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3470,7 @@
         <xdr:cNvPr id="68" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04C2E4C6-579F-4614-9C37-293AD90F6AFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C2E4C6-579F-4614-9C37-293AD90F6AFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3513,7 @@
         <xdr:cNvPr id="69" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F404A0FC-65FE-48AC-80A5-8ABD6F762147}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F404A0FC-65FE-48AC-80A5-8ABD6F762147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3556,7 @@
         <xdr:cNvPr id="70" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F930CBE1-E058-45F7-B62F-965692500700}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F930CBE1-E058-45F7-B62F-965692500700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3599,7 @@
         <xdr:cNvPr id="71" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD798EA2-48DA-459B-B0DF-2A8A0A4DB786}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD798EA2-48DA-459B-B0DF-2A8A0A4DB786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3642,7 @@
         <xdr:cNvPr id="72" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A947A69-28BC-49A3-8E1C-4C9BE437CB07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A947A69-28BC-49A3-8E1C-4C9BE437CB07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3685,7 @@
         <xdr:cNvPr id="73" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6031A127-F29A-4C9A-8384-4C823A5820CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031A127-F29A-4C9A-8384-4C823A5820CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3728,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D56696D-7195-4EBF-8984-3AE189195EB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D56696D-7195-4EBF-8984-3AE189195EB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3771,7 @@
         <xdr:cNvPr id="74" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0D3E99F-2D0F-406D-9E0F-0DAB3C3F53CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D3E99F-2D0F-406D-9E0F-0DAB3C3F53CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3814,7 @@
         <xdr:cNvPr id="75" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2C10BB-2F28-4A45-A3F3-ADFC708DC367}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2C10BB-2F28-4A45-A3F3-ADFC708DC367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3857,7 @@
         <xdr:cNvPr id="76" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCFADF6-264F-46A1-96E1-7C5DA225266F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCFADF6-264F-46A1-96E1-7C5DA225266F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3900,7 @@
         <xdr:cNvPr id="77" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1B5D9C2-A75C-4CAE-B324-E883FFCB30FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B5D9C2-A75C-4CAE-B324-E883FFCB30FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +3943,7 @@
         <xdr:cNvPr id="78" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26B42629-5E98-42B7-93B4-97ED85836D7B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B42629-5E98-42B7-93B4-97ED85836D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +3986,7 @@
         <xdr:cNvPr id="79" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637F5948-DA3E-4B84-A225-B903096E5119}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637F5948-DA3E-4B84-A225-B903096E5119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4029,7 +4029,7 @@
         <xdr:cNvPr id="80" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00417A95-D543-473A-8738-44AC75EBBEF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00417A95-D543-473A-8738-44AC75EBBEF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4072,7 @@
         <xdr:cNvPr id="81" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F49A4FEF-7CC5-460C-9BEB-58BBDF866EDE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49A4FEF-7CC5-460C-9BEB-58BBDF866EDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4115,7 @@
         <xdr:cNvPr id="82" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ED4FEAD-082D-43DC-BFAA-5595C3C84D14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED4FEAD-082D-43DC-BFAA-5595C3C84D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="83" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA359933-8CBE-46B8-B020-ACEBB40CB103}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA359933-8CBE-46B8-B020-ACEBB40CB103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4201,7 @@
         <xdr:cNvPr id="84" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A30D3792-EDAB-47D0-86A3-CF51E982BC49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30D3792-EDAB-47D0-86A3-CF51E982BC49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4244,7 @@
         <xdr:cNvPr id="85" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92B3F9A-223F-4499-A8CF-BCF4D7DDD711}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92B3F9A-223F-4499-A8CF-BCF4D7DDD711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4287,7 @@
         <xdr:cNvPr id="86" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCFD2A74-31C7-45E8-B148-9B28EA1445CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFD2A74-31C7-45E8-B148-9B28EA1445CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4330,7 +4330,7 @@
         <xdr:cNvPr id="87" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7688DB6-0318-466E-B6F4-7548777B5B4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7688DB6-0318-466E-B6F4-7548777B5B4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +4373,7 @@
         <xdr:cNvPr id="88" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2EB24C-D84B-4277-AD7E-58BE78B7D517}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2EB24C-D84B-4277-AD7E-58BE78B7D517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4416,7 @@
         <xdr:cNvPr id="89" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B22FF81-E103-4EF5-987A-2FB196D88184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22FF81-E103-4EF5-987A-2FB196D88184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4459,7 @@
         <xdr:cNvPr id="90" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3C430AA-1CBC-4246-874F-B0FF9FDFF26F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C430AA-1CBC-4246-874F-B0FF9FDFF26F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4502,7 +4502,7 @@
         <xdr:cNvPr id="91" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DCEC6BA-D4B9-49BB-8BAF-3F1C695CBB54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCEC6BA-D4B9-49BB-8BAF-3F1C695CBB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4545,7 +4545,7 @@
         <xdr:cNvPr id="92" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5A5E65C-1B2B-4816-BF74-DF2BC6BCEAFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A5E65C-1B2B-4816-BF74-DF2BC6BCEAFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,7 +4588,7 @@
         <xdr:cNvPr id="93" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A1E9EB9-B50F-4B9C-AB18-87C0655F72A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E9EB9-B50F-4B9C-AB18-87C0655F72A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4631,7 +4631,7 @@
         <xdr:cNvPr id="94" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8074A67A-887E-4E7A-B666-01ED64AA0D8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8074A67A-887E-4E7A-B666-01ED64AA0D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,7 +4674,7 @@
         <xdr:cNvPr id="95" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC951A8A-E0A7-4080-A2C8-D0141BC36996}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC951A8A-E0A7-4080-A2C8-D0141BC36996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +4717,7 @@
         <xdr:cNvPr id="96" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3823903-6ADA-4150-83FC-60E47829D30C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3823903-6ADA-4150-83FC-60E47829D30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4760,7 +4760,7 @@
         <xdr:cNvPr id="97" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98819743-7264-4E8F-AE5E-E259305C1094}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98819743-7264-4E8F-AE5E-E259305C1094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4803,7 @@
         <xdr:cNvPr id="98" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA9FC35-1859-49C6-B0D0-AFEDA986D468}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA9FC35-1859-49C6-B0D0-AFEDA986D468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4846,7 +4846,7 @@
         <xdr:cNvPr id="99" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D93FDA0E-53FC-46CB-8EFD-52E965282B0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93FDA0E-53FC-46CB-8EFD-52E965282B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +4889,7 @@
         <xdr:cNvPr id="100" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{529E0DD9-532C-42AD-A8A9-6E42FA044538}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E0DD9-532C-42AD-A8A9-6E42FA044538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4932,7 @@
         <xdr:cNvPr id="101" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AD16940-2566-4113-A432-D64645FCEE2F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD16940-2566-4113-A432-D64645FCEE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4975,7 @@
         <xdr:cNvPr id="102" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2646ED1-D2F8-4EC4-996C-692A59C27B9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2646ED1-D2F8-4EC4-996C-692A59C27B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5018,7 @@
         <xdr:cNvPr id="103" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89276B7-622B-44C7-89C1-B9EFF40FF69C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89276B7-622B-44C7-89C1-B9EFF40FF69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5061,7 @@
         <xdr:cNvPr id="104" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24B56265-2CB5-45B5-849E-BF18A37333FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B56265-2CB5-45B5-849E-BF18A37333FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5104,7 +5104,7 @@
         <xdr:cNvPr id="105" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38514FDF-ACBE-4D2E-B11D-E23178C75F6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38514FDF-ACBE-4D2E-B11D-E23178C75F6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5147,7 @@
         <xdr:cNvPr id="106" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F8D7EA0-D051-4F2D-BD81-B49F3DD38C7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8D7EA0-D051-4F2D-BD81-B49F3DD38C7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5190,7 @@
         <xdr:cNvPr id="107" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F2C7FB2-C37B-4D71-9861-BDD66B7212BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2C7FB2-C37B-4D71-9861-BDD66B7212BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5233,7 @@
         <xdr:cNvPr id="108" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F556BCF-C94E-4689-B373-77E129D9CC3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F556BCF-C94E-4689-B373-77E129D9CC3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5276,7 +5276,7 @@
         <xdr:cNvPr id="109" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B21C6C6-CD49-46F9-9FC6-D65E8677EABD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B21C6C6-CD49-46F9-9FC6-D65E8677EABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5319,7 @@
         <xdr:cNvPr id="110" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8130F854-1753-42BE-A75C-BA419C5F102A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8130F854-1753-42BE-A75C-BA419C5F102A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5362,7 +5362,7 @@
         <xdr:cNvPr id="111" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A44BB4-3919-444B-ACC7-7D250A37A3FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A44BB4-3919-444B-ACC7-7D250A37A3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5405,7 +5405,7 @@
         <xdr:cNvPr id="112" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F22BDF1-81B0-41DC-A289-4CE265AC6215}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F22BDF1-81B0-41DC-A289-4CE265AC6215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5448,7 +5448,7 @@
         <xdr:cNvPr id="113" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C8242E-E81E-42C9-B50D-B3D35231FF93}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C8242E-E81E-42C9-B50D-B3D35231FF93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5491,7 +5491,7 @@
         <xdr:cNvPr id="114" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6504A0CF-4F10-4DF4-8820-FAEE6490D2AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6504A0CF-4F10-4DF4-8820-FAEE6490D2AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5534,7 +5534,7 @@
         <xdr:cNvPr id="115" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F985494A-08A2-4905-A5AB-66597D15FBC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F985494A-08A2-4905-A5AB-66597D15FBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5577,7 +5577,7 @@
         <xdr:cNvPr id="116" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6280453A-D3D9-4211-B09C-455FEA91D544}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6280453A-D3D9-4211-B09C-455FEA91D544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5620,7 @@
         <xdr:cNvPr id="117" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B69A5FE-5540-422E-9F02-581BD1EA0557}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B69A5FE-5540-422E-9F02-581BD1EA0557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5663,7 @@
         <xdr:cNvPr id="118" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{201CD036-B260-46B7-ACD4-ACBC5504A8D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201CD036-B260-46B7-ACD4-ACBC5504A8D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
         <xdr:cNvPr id="119" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B877FD-977D-48D5-A0FD-D699E4F60F74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B877FD-977D-48D5-A0FD-D699E4F60F74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="120" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAFB2781-28B0-47EA-A568-ACCA2243A41C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFB2781-28B0-47EA-A568-ACCA2243A41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5792,7 @@
         <xdr:cNvPr id="121" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1D77520-E487-4AF0-A4CD-B95A395ADC70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D77520-E487-4AF0-A4CD-B95A395ADC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5835,7 @@
         <xdr:cNvPr id="122" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A46C83A-1E52-413E-9227-9A7EC2DE9524}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A46C83A-1E52-413E-9227-9A7EC2DE9524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5878,7 @@
         <xdr:cNvPr id="123" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F6398AF-32E4-441B-8791-E89028C3C3BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6398AF-32E4-441B-8791-E89028C3C3BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5921,7 @@
         <xdr:cNvPr id="124" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46E68827-C6BA-41E7-8393-F817F3B0159A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E68827-C6BA-41E7-8393-F817F3B0159A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +5964,7 @@
         <xdr:cNvPr id="125" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26B62CCC-7BC4-45F0-8DAD-B5918962C322}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B62CCC-7BC4-45F0-8DAD-B5918962C322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,7 +6007,7 @@
         <xdr:cNvPr id="126" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3195B5-4C41-4D26-9044-02094964EF86}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3195B5-4C41-4D26-9044-02094964EF86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6050,7 +6050,7 @@
         <xdr:cNvPr id="127" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{653F91C6-1FBA-4C94-9B5C-63712EA9C8DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653F91C6-1FBA-4C94-9B5C-63712EA9C8DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6093,7 +6093,7 @@
         <xdr:cNvPr id="128" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CC7B600-07D3-4156-BF96-E42AB63DC896}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC7B600-07D3-4156-BF96-E42AB63DC896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6136,7 +6136,7 @@
         <xdr:cNvPr id="129" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{583306C8-E937-4A21-80C1-D38F647AF00E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583306C8-E937-4A21-80C1-D38F647AF00E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6179,7 @@
         <xdr:cNvPr id="130" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D24BC2-2E66-4F1A-94A9-EB8C46EAA651}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D24BC2-2E66-4F1A-94A9-EB8C46EAA651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,7 +6222,7 @@
         <xdr:cNvPr id="131" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73ED3248-9FF6-4A20-B4F6-6E78EEBC986E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ED3248-9FF6-4A20-B4F6-6E78EEBC986E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,7 +6265,7 @@
         <xdr:cNvPr id="132" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC42DAEE-013E-408A-9FD3-A873F80F9AC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42DAEE-013E-408A-9FD3-A873F80F9AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6308,7 @@
         <xdr:cNvPr id="133" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1683CEA6-F04A-46E3-A9A7-5AFA06ACCDFD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1683CEA6-F04A-46E3-A9A7-5AFA06ACCDFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6351,7 @@
         <xdr:cNvPr id="134" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A46998-D2D7-4B04-AC7E-6292FC4C7851}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A46998-D2D7-4B04-AC7E-6292FC4C7851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,7 +6394,7 @@
         <xdr:cNvPr id="135" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23FD1453-C0C8-45A7-AD34-B141A713955B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FD1453-C0C8-45A7-AD34-B141A713955B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6437,7 +6437,7 @@
         <xdr:cNvPr id="136" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F41B409-C6FF-46A1-B5AB-5A5FBB727FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F41B409-C6FF-46A1-B5AB-5A5FBB727FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6480,7 @@
         <xdr:cNvPr id="137" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EC26A2-2D67-4C4E-849E-E78C8601824F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EC26A2-2D67-4C4E-849E-E78C8601824F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6523,7 +6523,7 @@
         <xdr:cNvPr id="138" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E33BE7F-EC5C-4E87-83F2-259615B406BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E33BE7F-EC5C-4E87-83F2-259615B406BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6566,7 +6566,7 @@
         <xdr:cNvPr id="139" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D99F5407-E232-44AC-8593-A0E6C399B764}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99F5407-E232-44AC-8593-A0E6C399B764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6609,7 +6609,7 @@
         <xdr:cNvPr id="140" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF91C9CF-33C3-422D-BAE0-266B7579372C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF91C9CF-33C3-422D-BAE0-266B7579372C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6652,7 @@
         <xdr:cNvPr id="141" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{759FA513-037C-4E61-B280-77B02B0DD5B8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759FA513-037C-4E61-B280-77B02B0DD5B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6695,7 +6695,7 @@
         <xdr:cNvPr id="142" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A23D783F-9B27-4C60-8805-624A72F052E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23D783F-9B27-4C60-8805-624A72F052E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6738,7 +6738,7 @@
         <xdr:cNvPr id="143" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED7EDBBD-41E6-45ED-88E9-9F82E346449A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7EDBBD-41E6-45ED-88E9-9F82E346449A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6781,7 +6781,7 @@
         <xdr:cNvPr id="144" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A14BF46-5176-48AE-BF38-1AF0D67ED562}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A14BF46-5176-48AE-BF38-1AF0D67ED562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6824,7 +6824,7 @@
         <xdr:cNvPr id="145" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BAB9095-720E-41D5-BE26-C89B1DD4EE96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAB9095-720E-41D5-BE26-C89B1DD4EE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6867,7 @@
         <xdr:cNvPr id="146" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{076CF4BB-5BF0-4156-BCEC-06D128A13179}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076CF4BB-5BF0-4156-BCEC-06D128A13179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,7 +6910,7 @@
         <xdr:cNvPr id="147" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37114D9B-38D5-4984-92DC-6AFE26ED8C1E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37114D9B-38D5-4984-92DC-6AFE26ED8C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6953,7 +6953,7 @@
         <xdr:cNvPr id="148" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A60AFFEA-48F6-4EF8-A1A1-729A26DCD0AF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60AFFEA-48F6-4EF8-A1A1-729A26DCD0AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6996,7 +6996,7 @@
         <xdr:cNvPr id="149" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301B5DE0-823C-4393-A3E9-79A25E6E71ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301B5DE0-823C-4393-A3E9-79A25E6E71ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +7039,7 @@
         <xdr:cNvPr id="150" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7641AA03-7361-47EB-B06C-57AC5D591056}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7641AA03-7361-47EB-B06C-57AC5D591056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7082,7 @@
         <xdr:cNvPr id="151" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4A18168-349F-48B4-B947-B4214B006036}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A18168-349F-48B4-B947-B4214B006036}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7125,7 +7125,7 @@
         <xdr:cNvPr id="152" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19C52DD1-B5FA-410C-B8B5-56DE4C970606}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C52DD1-B5FA-410C-B8B5-56DE4C970606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7168,7 +7168,7 @@
         <xdr:cNvPr id="153" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50EF96EC-53C1-41C4-A107-FC25503673A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EF96EC-53C1-41C4-A107-FC25503673A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7211,7 +7211,7 @@
         <xdr:cNvPr id="154" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D12E1807-7B67-48F5-91B7-079AF01BC3E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12E1807-7B67-48F5-91B7-079AF01BC3E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7254,7 +7254,7 @@
         <xdr:cNvPr id="155" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D803C8D-1992-4082-8CBB-BBC4A2075FE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D803C8D-1992-4082-8CBB-BBC4A2075FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7297,7 +7297,7 @@
         <xdr:cNvPr id="156" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E9B195F-C8C7-4135-9976-0F944FCF5522}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9B195F-C8C7-4135-9976-0F944FCF5522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7340,7 +7340,7 @@
         <xdr:cNvPr id="157" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC7E0824-1AC2-45B5-998F-9B370297DB44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7E0824-1AC2-45B5-998F-9B370297DB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7383,7 @@
         <xdr:cNvPr id="158" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0900E45-A78D-4C6E-A563-AC8A46AC9A44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0900E45-A78D-4C6E-A563-AC8A46AC9A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7426,7 +7426,7 @@
         <xdr:cNvPr id="159" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A0EA12E-696E-4876-92EF-8BD47CA1B1AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0EA12E-696E-4876-92EF-8BD47CA1B1AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7469,7 +7469,7 @@
         <xdr:cNvPr id="160" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB67774A-2733-4A5E-8024-8A671711D4B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB67774A-2733-4A5E-8024-8A671711D4B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7512,7 +7512,7 @@
         <xdr:cNvPr id="161" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A8330FA-F5B1-4CA4-9517-46E7428949FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8330FA-F5B1-4CA4-9517-46E7428949FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7555,7 +7555,7 @@
         <xdr:cNvPr id="162" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C55D037-356E-44EB-9713-B43F5B4A9BBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C55D037-356E-44EB-9713-B43F5B4A9BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7598,7 +7598,7 @@
         <xdr:cNvPr id="163" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{572CEF85-737A-474A-B159-E9C562211E13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572CEF85-737A-474A-B159-E9C562211E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7641,7 +7641,7 @@
         <xdr:cNvPr id="164" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C63CB991-031B-4051-9603-A80919472416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63CB991-031B-4051-9603-A80919472416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,7 +7684,7 @@
         <xdr:cNvPr id="165" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A090F32-9A72-4C5A-8865-244931B2A265}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A090F32-9A72-4C5A-8865-244931B2A265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7727,7 +7727,7 @@
         <xdr:cNvPr id="166" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3A6726-D6B3-40C8-9680-EA2A2BA3195E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3A6726-D6B3-40C8-9680-EA2A2BA3195E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,7 +7770,7 @@
         <xdr:cNvPr id="167" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE0871D5-C732-4E75-97CA-232380DEC5C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0871D5-C732-4E75-97CA-232380DEC5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7813,7 +7813,7 @@
         <xdr:cNvPr id="168" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34C73D6E-3ED1-4833-890A-F26B6B84D9B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C73D6E-3ED1-4833-890A-F26B6B84D9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +7856,7 @@
         <xdr:cNvPr id="169" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF3209C7-B262-44C4-8645-3DEF097522A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3209C7-B262-44C4-8645-3DEF097522A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7899,7 +7899,7 @@
         <xdr:cNvPr id="170" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82386B51-CE0E-43D9-AA3A-9A3601715778}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82386B51-CE0E-43D9-AA3A-9A3601715778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7942,7 +7942,7 @@
         <xdr:cNvPr id="171" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C99C51-ADB2-49E6-B592-2515B4218F44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C99C51-ADB2-49E6-B592-2515B4218F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7985,7 +7985,7 @@
         <xdr:cNvPr id="172" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C71CF0-2BDC-4ACE-818F-04DBDF958206}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C71CF0-2BDC-4ACE-818F-04DBDF958206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8028,7 @@
         <xdr:cNvPr id="173" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F65BA4C-2D23-40BA-9570-A682BF826CEC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F65BA4C-2D23-40BA-9570-A682BF826CEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8071,7 +8071,7 @@
         <xdr:cNvPr id="174" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21E7C2D1-B7F4-484E-B61C-0D5ECD11DE91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E7C2D1-B7F4-484E-B61C-0D5ECD11DE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8114,7 +8114,7 @@
         <xdr:cNvPr id="175" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{720EF9F7-2228-4D71-9091-EC7F70536B83}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720EF9F7-2228-4D71-9091-EC7F70536B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8157,7 +8157,7 @@
         <xdr:cNvPr id="176" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02DB2B55-B2B4-4B14-AE71-C05B87C4B9E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DB2B55-B2B4-4B14-AE71-C05B87C4B9E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8200,7 +8200,7 @@
         <xdr:cNvPr id="177" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{228EE11D-01AD-4899-9354-F23FD73E010B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228EE11D-01AD-4899-9354-F23FD73E010B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8243,7 +8243,7 @@
         <xdr:cNvPr id="178" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5800F126-59C0-4805-8D8E-30DB12EFDE75}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5800F126-59C0-4805-8D8E-30DB12EFDE75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8286,7 +8286,7 @@
         <xdr:cNvPr id="179" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97845FCA-C2B6-409D-8D31-B5A5E898EB96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97845FCA-C2B6-409D-8D31-B5A5E898EB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8329,7 +8329,7 @@
         <xdr:cNvPr id="180" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EEC4C13-07F5-446D-804D-94BC9C4B7385}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEC4C13-07F5-446D-804D-94BC9C4B7385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8372,7 +8372,7 @@
         <xdr:cNvPr id="181" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3604453A-FBF3-4E64-892C-0E7972E74FDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3604453A-FBF3-4E64-892C-0E7972E74FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8415,7 +8415,7 @@
         <xdr:cNvPr id="182" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C275B0FB-2E38-462F-AECE-BF08FC847D3F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C275B0FB-2E38-462F-AECE-BF08FC847D3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8458,7 +8458,7 @@
         <xdr:cNvPr id="183" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54DFA8AA-3A44-4ABD-82B7-F8C2242CBA5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DFA8AA-3A44-4ABD-82B7-F8C2242CBA5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8501,7 +8501,7 @@
         <xdr:cNvPr id="184" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B718FD-B4A7-42F7-96C8-86017B49A937}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B718FD-B4A7-42F7-96C8-86017B49A937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8544,7 +8544,7 @@
         <xdr:cNvPr id="185" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF67EF28-845C-4853-B485-9E29EECC43E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF67EF28-845C-4853-B485-9E29EECC43E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8587,7 +8587,7 @@
         <xdr:cNvPr id="186" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE82CA16-4E0A-42CA-B0DC-6433AE43DA82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE82CA16-4E0A-42CA-B0DC-6433AE43DA82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8630,7 +8630,7 @@
         <xdr:cNvPr id="187" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DC633AB-B9A0-4190-A80B-53D70CE108ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC633AB-B9A0-4190-A80B-53D70CE108ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8673,7 +8673,7 @@
         <xdr:cNvPr id="188" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CE6F763-FCA6-4676-B203-765C6B01AFE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE6F763-FCA6-4676-B203-765C6B01AFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8716,7 +8716,7 @@
         <xdr:cNvPr id="189" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC282AF0-7F3F-4DB1-84C3-D794D1EED6E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC282AF0-7F3F-4DB1-84C3-D794D1EED6E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8759,7 +8759,7 @@
         <xdr:cNvPr id="190" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D87A9E0-D546-4EAE-A0ED-A81EF1BC755F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87A9E0-D546-4EAE-A0ED-A81EF1BC755F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8802,7 +8802,7 @@
         <xdr:cNvPr id="191" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6676D9FA-DFAD-40F4-AC09-F6354C7B9458}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6676D9FA-DFAD-40F4-AC09-F6354C7B9458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8845,7 +8845,7 @@
         <xdr:cNvPr id="192" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C62D14B4-E050-40CD-8C5C-E8FAB04A18C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62D14B4-E050-40CD-8C5C-E8FAB04A18C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8888,7 +8888,7 @@
         <xdr:cNvPr id="193" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE3AAD7C-555D-443A-9AEA-99E4CF6A00EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3AAD7C-555D-443A-9AEA-99E4CF6A00EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,7 +8931,7 @@
         <xdr:cNvPr id="194" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4237D7-CB34-4E11-B10C-5D71302A6A6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4237D7-CB34-4E11-B10C-5D71302A6A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8974,7 +8974,7 @@
         <xdr:cNvPr id="195" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0347D55B-AC13-4F73-AD6E-195CBB45F59A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0347D55B-AC13-4F73-AD6E-195CBB45F59A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9017,7 +9017,7 @@
         <xdr:cNvPr id="196" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6856E4A2-822F-4259-AC1C-8FB4E3A70799}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6856E4A2-822F-4259-AC1C-8FB4E3A70799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9060,7 @@
         <xdr:cNvPr id="197" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{955F2A18-6EDC-4922-A26D-B87B3CDFE062}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955F2A18-6EDC-4922-A26D-B87B3CDFE062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9103,7 +9103,7 @@
         <xdr:cNvPr id="198" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{379C03B4-0FCB-488B-A92E-8822503146FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379C03B4-0FCB-488B-A92E-8822503146FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9146,7 +9146,7 @@
         <xdr:cNvPr id="199" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{484953CA-8A25-4762-BDC1-711FD9CC1CFA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484953CA-8A25-4762-BDC1-711FD9CC1CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9189,7 +9189,7 @@
         <xdr:cNvPr id="200" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F53E080E-084A-4721-ABCA-BC7550BD85FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53E080E-084A-4721-ABCA-BC7550BD85FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9232,7 +9232,7 @@
         <xdr:cNvPr id="201" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{970BD505-2885-4DC9-BDE2-993BDFD52876}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BD505-2885-4DC9-BDE2-993BDFD52876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9275,7 +9275,7 @@
         <xdr:cNvPr id="202" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42A88924-F0D2-4FC5-9DC5-34C46F5A9AE5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A88924-F0D2-4FC5-9DC5-34C46F5A9AE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9318,7 +9318,7 @@
         <xdr:cNvPr id="203" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA72B805-3834-4F88-83AC-9753558E74D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72B805-3834-4F88-83AC-9753558E74D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9361,7 +9361,7 @@
         <xdr:cNvPr id="204" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81524F5C-8C3E-443E-9A2F-AF399886D8DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81524F5C-8C3E-443E-9A2F-AF399886D8DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9404,7 +9404,7 @@
         <xdr:cNvPr id="205" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AC6131C-E21B-4B4F-9A3A-B000095CF6A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC6131C-E21B-4B4F-9A3A-B000095CF6A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9447,7 +9447,7 @@
         <xdr:cNvPr id="206" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74532559-B6C4-4853-85E2-7DC6101333FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74532559-B6C4-4853-85E2-7DC6101333FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9490,7 +9490,7 @@
         <xdr:cNvPr id="207" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CEBBB6D-4063-44DE-B35B-8FB130ABAD82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEBBB6D-4063-44DE-B35B-8FB130ABAD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9533,7 +9533,7 @@
         <xdr:cNvPr id="208" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0648B1D2-BF3C-4090-8AB8-27B58839B413}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0648B1D2-BF3C-4090-8AB8-27B58839B413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9576,7 +9576,7 @@
         <xdr:cNvPr id="209" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06C88FA7-EC2E-490B-A468-E14BE710112E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C88FA7-EC2E-490B-A468-E14BE710112E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9619,7 +9619,7 @@
         <xdr:cNvPr id="210" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7383899A-90A2-452D-9F4D-BC3527533D64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7383899A-90A2-452D-9F4D-BC3527533D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9662,7 +9662,7 @@
         <xdr:cNvPr id="211" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09246FEF-3068-4DA1-A9FB-B1B6D20705C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09246FEF-3068-4DA1-A9FB-B1B6D20705C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9705,7 +9705,7 @@
         <xdr:cNvPr id="212" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50EF39AE-5CF0-4108-8204-3A0838249881}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EF39AE-5CF0-4108-8204-3A0838249881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9748,7 +9748,7 @@
         <xdr:cNvPr id="225" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10070,7 +10070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10080,8 +10080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10104,87 +10104,87 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>103</v>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>92</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>6</v>
+      <c r="M7" s="13" t="s">
+        <v>95</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>7</v>
+      <c r="N7" s="12" t="s">
+        <v>97</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -10203,13 +10203,13 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -10218,11 +10218,11 @@
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
@@ -10239,7 +10239,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -10248,11 +10248,11 @@
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10269,7 +10269,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -10278,11 +10278,11 @@
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
@@ -10301,7 +10301,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -10310,11 +10310,11 @@
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -10340,11 +10340,11 @@
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10368,11 +10368,11 @@
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
@@ -10395,11 +10395,11 @@
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10489,13 +10489,13 @@
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -10519,11 +10519,11 @@
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
@@ -10547,11 +10547,11 @@
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
@@ -10572,11 +10572,11 @@
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
@@ -10598,11 +10598,11 @@
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -10624,11 +10624,11 @@
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
@@ -10650,11 +10650,11 @@
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
@@ -10674,13 +10674,13 @@
     </row>
     <row r="25" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
@@ -10699,9 +10699,9 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>

--- a/NavnitaMandal_TestAssesment_task1_damco.xlsx
+++ b/NavnitaMandal_TestAssesment_task1_damco.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t>TestStep</t>
   </si>
@@ -282,30 +282,8 @@
     <t>verify whether the user is able to check/uncheck the 'smoking allowed' filed</t>
   </si>
   <si>
-    <t>verify whether the user is able to able to select equipments from the list</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search workspace by typing desired keyword</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search within the speacified date range</t>
-  </si>
-  <si>
     <t>verify whether the user is able to clear the selected date range and search only with the
 keyword</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search with specfied room number</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search within the speacified date range and with 
-specified room number</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search with 'smoking allowed' filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify whether the user is able to able to select dates </t>
   </si>
   <si>
     <t>verify whether the user is able  to scroll the 'equipment' scroll bar</t>
@@ -383,14 +361,6 @@
     <t>TC_17</t>
   </si>
   <si>
-    <t>verify whether the user is able to able to search workspace which do
- not allow smoking</t>
-  </si>
-  <si>
-    <t>verify whether the user is able to able to search with specfied room number
- which allow smoking</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -425,6 +395,126 @@
   </si>
   <si>
     <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search with specfied room number
+ which allow smoking</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search with 'smoking allowed' filter</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search workspace which do
+ not allow smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify whether the user is able to select dates </t>
+  </si>
+  <si>
+    <t>verify whether the user is able to select equipments from the list</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search workspace by typing desired keyword</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search within the speacified date range</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search with specfied room number</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search within the speacified date range and with 
+specified room number</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search workspace which have desired 
+equipments.</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ER1: Only workspaces with PC
+should be visible in the list
+ER2: workspaces with PC,
+phone should be visible</t>
+  </si>
+  <si>
+    <t>1. click on the search text field
+2. type a valid workspace name
+3. click equipments and select PC
+4. click on search [ER 1]
+5.again click on 'Phone'
+6. click on search[ER 2]</t>
+  </si>
+  <si>
+    <t>1. click on the search text field
+2. type a valid workspace name
+3. click equipments and select PC
+4. click on search [ER 1]
+5.click on smoking and check the box
+6. click on search[ER 2]</t>
+  </si>
+  <si>
+    <t>ER1: Only workspaces with PC
+should be visible in the list
+ER2: workspaces with PC 
+and smoking allowed condition will be visible only</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to search  workspace with equipments
+and smoking condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify whether the user is able to navigate </t>
+  </si>
+  <si>
+    <t>1.click on the search field.
+2.type text in the field[ER 1]
+3. click on Next[ER2]
+4. click on previous[ER3]</t>
+  </si>
+  <si>
+    <t>ER1: workspaces should be displayed.
+ER2: next page should be 
+visible.
+ER3: previous page should be visible</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Navigation should work properly</t>
+  </si>
+  <si>
+    <t>Navnita Mandal</t>
+  </si>
+  <si>
+    <t>Points that are not clear</t>
+  </si>
+  <si>
+    <t>1. Here date filter is not clear, not clear about which kind of date it is.</t>
+  </si>
+  <si>
+    <t>serach result should be in read able format</t>
+  </si>
+  <si>
+    <t>verify whether the user is able to edit search result</t>
+  </si>
+  <si>
+    <t>1.click on the search field.
+2.type text in the field[ER 1]
+3. click on result and try to edit[ER2]</t>
+  </si>
+  <si>
+    <t>ER1: workspaces should be displayed.
+ER2: user should not be able to edit</t>
   </si>
 </sst>
 </file>
@@ -552,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -608,11 +698,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -647,7 +743,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE57C944-0273-4E7C-B33B-5678DEB63F5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE57C944-0273-4E7C-B33B-5678DEB63F5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,7 +786,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D56A0C6-3528-4564-BD4D-679FE5281DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D56A0C6-3528-4564-BD4D-679FE5281DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +829,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,7 +872,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5DE6AE-BDBD-46F7-91FD-274FC0199C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE5DE6AE-BDBD-46F7-91FD-274FC0199C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +915,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3E3AB4-586A-4729-BF74-DE88F8DCFE91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D3E3AB4-586A-4729-BF74-DE88F8DCFE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +958,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46B208E-7CF1-4CF4-A5ED-5FEF3C53B3F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D46B208E-7CF1-4CF4-A5ED-5FEF3C53B3F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +1001,7 @@
         <xdr:cNvPr id="9" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873FE027-3C74-441A-9EB6-7B32AD3CCE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{873FE027-3C74-441A-9EB6-7B32AD3CCE88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +1044,7 @@
         <xdr:cNvPr id="10" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4540169-FD3B-46C0-AC5C-AE8AE8CB2DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4540169-FD3B-46C0-AC5C-AE8AE8CB2DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1087,7 @@
         <xdr:cNvPr id="11" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130D9255-5084-4408-9A31-F665A5681DFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130D9255-5084-4408-9A31-F665A5681DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1130,7 @@
         <xdr:cNvPr id="12" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70350E1-9BB4-4DDD-A183-A043F1BED4F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70350E1-9BB4-4DDD-A183-A043F1BED4F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1173,7 @@
         <xdr:cNvPr id="13" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF755AB-12AD-4900-8AF2-DF83F4F8F7BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF755AB-12AD-4900-8AF2-DF83F4F8F7BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1216,7 @@
         <xdr:cNvPr id="14" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C0D8E-0B06-4182-AFD7-183C399D1AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B0C0D8E-0B06-4182-AFD7-183C399D1AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1259,7 @@
         <xdr:cNvPr id="15" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388F64BC-838F-44BB-AB2F-04D893472C14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{388F64BC-838F-44BB-AB2F-04D893472C14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1302,7 @@
         <xdr:cNvPr id="16" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019383F2-9CB4-456C-A647-AB04629A7CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{019383F2-9CB4-456C-A647-AB04629A7CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1345,7 @@
         <xdr:cNvPr id="17" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DBAE23-377B-4878-B48C-7740ED2651C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09DBAE23-377B-4878-B48C-7740ED2651C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1388,7 @@
         <xdr:cNvPr id="18" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3879B4-38E4-4765-A5FE-20EE500AB530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E3879B4-38E4-4765-A5FE-20EE500AB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1431,7 @@
         <xdr:cNvPr id="19" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F163F8-7C0C-4802-849A-949E74E6941B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82F163F8-7C0C-4802-849A-949E74E6941B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1474,7 @@
         <xdr:cNvPr id="20" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C1C566-164B-45E8-B744-2099022F9C16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08C1C566-164B-45E8-B744-2099022F9C16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1517,7 @@
         <xdr:cNvPr id="21" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D2F4BD-8C31-45B3-8273-2BAE67B04992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D2F4BD-8C31-45B3-8273-2BAE67B04992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1560,7 @@
         <xdr:cNvPr id="22" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740A5CC7-56E4-4A79-9671-98D348C52FD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740A5CC7-56E4-4A79-9671-98D348C52FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1603,7 @@
         <xdr:cNvPr id="23" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5141DB7C-C081-403A-9FB7-0C53A2C39005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5141DB7C-C081-403A-9FB7-0C53A2C39005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1646,7 @@
         <xdr:cNvPr id="24" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2AE468-267F-40B2-B381-0362283D2B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE2AE468-267F-40B2-B381-0362283D2B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1689,7 @@
         <xdr:cNvPr id="25" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B700D68E-ADB4-4210-8F1B-5E6AC95B7284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B700D68E-ADB4-4210-8F1B-5E6AC95B7284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1732,7 @@
         <xdr:cNvPr id="26" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68560F58-42B3-4486-95ED-033E2F9AA067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68560F58-42B3-4486-95ED-033E2F9AA067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1775,7 @@
         <xdr:cNvPr id="27" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C777869F-3EC2-4B83-A31E-A4E109929E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C777869F-3EC2-4B83-A31E-A4E109929E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1818,7 @@
         <xdr:cNvPr id="28" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E835154-53A1-4132-9681-1D5324292E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E835154-53A1-4132-9681-1D5324292E45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1861,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F24673-5A6E-45C1-A184-7A04A1210751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56F24673-5A6E-45C1-A184-7A04A1210751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1904,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22B65E-9545-4DD9-9BF0-05FA7B678B7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA22B65E-9545-4DD9-9BF0-05FA7B678B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1947,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062BA546-3339-4A56-AA13-432D3AC2D9AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{062BA546-3339-4A56-AA13-432D3AC2D9AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1990,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFAAA0B-ABC8-4BD1-9572-4E3248EBFCA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BFAAA0B-ABC8-4BD1-9572-4E3248EBFCA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,59 +2024,59 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5A3095B-1A39-4A47-8C0C-36254D396995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="13906500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A3095B-1A39-4A47-8C0C-36254D396995}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="381000" y="13906500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4799E5-3967-4721-9964-82FB0D8215F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F4799E5-3967-4721-9964-82FB0D8215F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,16 +2110,59 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D91DD3D-611E-42AC-9A06-A5ECE4E24539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="16573500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D91DD3D-611E-42AC-9A06-A5ECE4E24539}"/>
+        <xdr:cNvPr id="36" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC3E7D7C-27B3-4862-B9A8-A03A380F137C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,49 +2196,6 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3E7D7C-27B3-4862-B9A8-A03A380F137C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="381000" y="16573500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2109,7 +2205,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64AA509-E473-4B86-B485-A338413DC484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F64AA509-E473-4B86-B485-A338413DC484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,59 +2239,59 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5E15D53-DE21-446D-8145-91A41FD098A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10220325" y="18859500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E15D53-DE21-446D-8145-91A41FD098A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10220325" y="18859500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3520299-071B-4310-A0C2-DF2D5BCE111D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3520299-071B-4310-A0C2-DF2D5BCE111D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2334,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F0BB91-559E-4478-9375-6DA9DA5DFDCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F0BB91-559E-4478-9375-6DA9DA5DFDCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2377,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEF7B0E-6F4D-483E-95E9-22BAC1F4FD7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FEF7B0E-6F4D-483E-95E9-22BAC1F4FD7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2420,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4FF23F-C99D-49C6-A3EB-4DC439E2DE67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4FF23F-C99D-49C6-A3EB-4DC439E2DE67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2454,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2367,7 +2463,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC743A88-C040-4941-9E0D-004735D24DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC743A88-C040-4941-9E0D-004735D24DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2506,7 @@
         <xdr:cNvPr id="44" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201C49C6-AB27-4689-A0FB-83BE15231D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{201C49C6-AB27-4689-A0FB-83BE15231D6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2556,7 @@
         <xdr:cNvPr id="45" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2B4C9B-C348-4EC5-9147-234D2A81322F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2B4C9B-C348-4EC5-9147-234D2A81322F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2599,7 @@
         <xdr:cNvPr id="46" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ED70D5-FA19-4581-A6B8-060841CBA041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2ED70D5-FA19-4581-A6B8-060841CBA041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2633,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2546,7 +2642,7 @@
         <xdr:cNvPr id="47" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B29546B-2687-4DBE-B5E1-D348C0EF3553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B29546B-2687-4DBE-B5E1-D348C0EF3553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2685,7 @@
         <xdr:cNvPr id="48" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649BD85E-EBA3-4538-8AAB-FFA7FEA4193B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649BD85E-EBA3-4538-8AAB-FFA7FEA4193B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2726,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2639,7 +2735,7 @@
         <xdr:cNvPr id="49" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2E17FE-1D82-4146-A840-2307B45665C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF2E17FE-1D82-4146-A840-2307B45665C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2769,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2682,7 +2778,7 @@
         <xdr:cNvPr id="50" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A968AAC-1134-47FF-A640-EBD3A700D9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A968AAC-1134-47FF-A640-EBD3A700D9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2812,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2725,7 +2821,7 @@
         <xdr:cNvPr id="51" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0816B9-8FCA-43D1-8421-684A54031429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0816B9-8FCA-43D1-8421-684A54031429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2864,7 @@
         <xdr:cNvPr id="52" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796AEC97-C755-446B-9A8F-2CBD6A8D9D7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{796AEC97-C755-446B-9A8F-2CBD6A8D9D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2907,7 @@
         <xdr:cNvPr id="53" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29F2248-FB9B-4C05-AB34-BFA5EB67C0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29F2248-FB9B-4C05-AB34-BFA5EB67C0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2950,7 @@
         <xdr:cNvPr id="54" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DE6CDD-0A1C-43CA-8BFC-FCD95C28E272}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DE6CDD-0A1C-43CA-8BFC-FCD95C28E272}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2993,7 @@
         <xdr:cNvPr id="55" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D469670A-334A-465A-B70A-847BF720CF45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D469670A-334A-465A-B70A-847BF720CF45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +3034,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2947,7 +3043,7 @@
         <xdr:cNvPr id="56" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB87069B-285F-4873-96D1-68765D5B7199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB87069B-285F-4873-96D1-68765D5B7199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +3077,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2990,7 +3086,7 @@
         <xdr:cNvPr id="57" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADCD786-E2C0-4309-8984-AC2F567EFFBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADCD786-E2C0-4309-8984-AC2F567EFFBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3120,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3033,7 +3129,7 @@
         <xdr:cNvPr id="58" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF40A6B-58C1-4CF1-B4D9-541638030A1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CF40A6B-58C1-4CF1-B4D9-541638030A1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3163,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3076,7 +3172,7 @@
         <xdr:cNvPr id="59" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E22C7D8-9926-4623-A464-1EC6CB36BBFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E22C7D8-9926-4623-A464-1EC6CB36BBFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3215,7 @@
         <xdr:cNvPr id="60" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE52354-7AD5-400F-BC37-86108A27664A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE52354-7AD5-400F-BC37-86108A27664A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3249,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3162,7 +3258,7 @@
         <xdr:cNvPr id="61" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41801BC5-4B84-4001-87DB-48681E472183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41801BC5-4B84-4001-87DB-48681E472183}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3301,7 @@
         <xdr:cNvPr id="62" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D68F7D6-CE1C-4A0E-947A-6B2789337210}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D68F7D6-CE1C-4A0E-947A-6B2789337210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3344,7 @@
         <xdr:cNvPr id="63" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB08C16B-954C-4AE0-9A6C-E50A01C019BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB08C16B-954C-4AE0-9A6C-E50A01C019BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3291,7 +3387,7 @@
         <xdr:cNvPr id="64" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5101DE46-1B33-41DF-8432-72B9CE461FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5101DE46-1B33-41DF-8432-72B9CE461FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3430,7 @@
         <xdr:cNvPr id="65" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29AC59E-6F1E-444E-A859-300F21721082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29AC59E-6F1E-444E-A859-300F21721082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3471,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3384,7 +3480,7 @@
         <xdr:cNvPr id="66" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32517EAC-9168-4C2B-ABC4-56AEAF63F78C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32517EAC-9168-4C2B-ABC4-56AEAF63F78C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3523,7 @@
         <xdr:cNvPr id="67" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C7D459-F2E8-4B36-892B-490B13E2C5BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19C7D459-F2E8-4B36-892B-490B13E2C5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3566,7 @@
         <xdr:cNvPr id="68" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C2E4C6-579F-4614-9C37-293AD90F6AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04C2E4C6-579F-4614-9C37-293AD90F6AFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3609,7 @@
         <xdr:cNvPr id="69" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F404A0FC-65FE-48AC-80A5-8ABD6F762147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F404A0FC-65FE-48AC-80A5-8ABD6F762147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3652,7 @@
         <xdr:cNvPr id="70" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F930CBE1-E058-45F7-B62F-965692500700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F930CBE1-E058-45F7-B62F-965692500700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3695,7 @@
         <xdr:cNvPr id="71" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD798EA2-48DA-459B-B0DF-2A8A0A4DB786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD798EA2-48DA-459B-B0DF-2A8A0A4DB786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3738,7 @@
         <xdr:cNvPr id="72" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A947A69-28BC-49A3-8E1C-4C9BE437CB07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A947A69-28BC-49A3-8E1C-4C9BE437CB07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3781,7 @@
         <xdr:cNvPr id="73" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031A127-F29A-4C9A-8384-4C823A5820CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6031A127-F29A-4C9A-8384-4C823A5820CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3824,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D56696D-7195-4EBF-8984-3AE189195EB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D56696D-7195-4EBF-8984-3AE189195EB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3867,7 @@
         <xdr:cNvPr id="74" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D3E99F-2D0F-406D-9E0F-0DAB3C3F53CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0D3E99F-2D0F-406D-9E0F-0DAB3C3F53CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3910,7 @@
         <xdr:cNvPr id="75" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2C10BB-2F28-4A45-A3F3-ADFC708DC367}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2C10BB-2F28-4A45-A3F3-ADFC708DC367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3953,7 @@
         <xdr:cNvPr id="76" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCFADF6-264F-46A1-96E1-7C5DA225266F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCFADF6-264F-46A1-96E1-7C5DA225266F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3996,7 @@
         <xdr:cNvPr id="77" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B5D9C2-A75C-4CAE-B324-E883FFCB30FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1B5D9C2-A75C-4CAE-B324-E883FFCB30FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +4039,7 @@
         <xdr:cNvPr id="78" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B42629-5E98-42B7-93B4-97ED85836D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26B42629-5E98-42B7-93B4-97ED85836D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +4082,7 @@
         <xdr:cNvPr id="79" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637F5948-DA3E-4B84-A225-B903096E5119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637F5948-DA3E-4B84-A225-B903096E5119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4029,7 +4125,7 @@
         <xdr:cNvPr id="80" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00417A95-D543-473A-8738-44AC75EBBEF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00417A95-D543-473A-8738-44AC75EBBEF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4168,7 @@
         <xdr:cNvPr id="81" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49A4FEF-7CC5-460C-9BEB-58BBDF866EDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F49A4FEF-7CC5-460C-9BEB-58BBDF866EDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4211,7 @@
         <xdr:cNvPr id="82" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED4FEAD-082D-43DC-BFAA-5595C3C84D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ED4FEAD-082D-43DC-BFAA-5595C3C84D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,7 +4254,7 @@
         <xdr:cNvPr id="83" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA359933-8CBE-46B8-B020-ACEBB40CB103}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA359933-8CBE-46B8-B020-ACEBB40CB103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4297,7 @@
         <xdr:cNvPr id="84" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30D3792-EDAB-47D0-86A3-CF51E982BC49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A30D3792-EDAB-47D0-86A3-CF51E982BC49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4340,7 @@
         <xdr:cNvPr id="85" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92B3F9A-223F-4499-A8CF-BCF4D7DDD711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92B3F9A-223F-4499-A8CF-BCF4D7DDD711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4383,7 @@
         <xdr:cNvPr id="86" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFD2A74-31C7-45E8-B148-9B28EA1445CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCFD2A74-31C7-45E8-B148-9B28EA1445CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4330,7 +4426,7 @@
         <xdr:cNvPr id="87" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7688DB6-0318-466E-B6F4-7548777B5B4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7688DB6-0318-466E-B6F4-7548777B5B4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +4469,7 @@
         <xdr:cNvPr id="88" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2EB24C-D84B-4277-AD7E-58BE78B7D517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2EB24C-D84B-4277-AD7E-58BE78B7D517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4512,7 @@
         <xdr:cNvPr id="89" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B22FF81-E103-4EF5-987A-2FB196D88184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B22FF81-E103-4EF5-987A-2FB196D88184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4555,7 @@
         <xdr:cNvPr id="90" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C430AA-1CBC-4246-874F-B0FF9FDFF26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3C430AA-1CBC-4246-874F-B0FF9FDFF26F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4502,7 +4598,7 @@
         <xdr:cNvPr id="91" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCEC6BA-D4B9-49BB-8BAF-3F1C695CBB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DCEC6BA-D4B9-49BB-8BAF-3F1C695CBB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4545,7 +4641,7 @@
         <xdr:cNvPr id="92" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A5E65C-1B2B-4816-BF74-DF2BC6BCEAFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5A5E65C-1B2B-4816-BF74-DF2BC6BCEAFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,7 +4684,7 @@
         <xdr:cNvPr id="93" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E9EB9-B50F-4B9C-AB18-87C0655F72A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A1E9EB9-B50F-4B9C-AB18-87C0655F72A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4631,7 +4727,7 @@
         <xdr:cNvPr id="94" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8074A67A-887E-4E7A-B666-01ED64AA0D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8074A67A-887E-4E7A-B666-01ED64AA0D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,7 +4770,7 @@
         <xdr:cNvPr id="95" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC951A8A-E0A7-4080-A2C8-D0141BC36996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC951A8A-E0A7-4080-A2C8-D0141BC36996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +4813,7 @@
         <xdr:cNvPr id="96" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3823903-6ADA-4150-83FC-60E47829D30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3823903-6ADA-4150-83FC-60E47829D30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4760,7 +4856,7 @@
         <xdr:cNvPr id="97" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98819743-7264-4E8F-AE5E-E259305C1094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98819743-7264-4E8F-AE5E-E259305C1094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4899,7 @@
         <xdr:cNvPr id="98" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA9FC35-1859-49C6-B0D0-AFEDA986D468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA9FC35-1859-49C6-B0D0-AFEDA986D468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4846,7 +4942,7 @@
         <xdr:cNvPr id="99" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93FDA0E-53FC-46CB-8EFD-52E965282B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D93FDA0E-53FC-46CB-8EFD-52E965282B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +4985,7 @@
         <xdr:cNvPr id="100" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E0DD9-532C-42AD-A8A9-6E42FA044538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{529E0DD9-532C-42AD-A8A9-6E42FA044538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +5028,7 @@
         <xdr:cNvPr id="101" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD16940-2566-4113-A432-D64645FCEE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AD16940-2566-4113-A432-D64645FCEE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +5071,7 @@
         <xdr:cNvPr id="102" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2646ED1-D2F8-4EC4-996C-692A59C27B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2646ED1-D2F8-4EC4-996C-692A59C27B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5114,7 @@
         <xdr:cNvPr id="103" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89276B7-622B-44C7-89C1-B9EFF40FF69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89276B7-622B-44C7-89C1-B9EFF40FF69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5157,7 @@
         <xdr:cNvPr id="104" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B56265-2CB5-45B5-849E-BF18A37333FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24B56265-2CB5-45B5-849E-BF18A37333FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5104,7 +5200,7 @@
         <xdr:cNvPr id="105" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38514FDF-ACBE-4D2E-B11D-E23178C75F6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38514FDF-ACBE-4D2E-B11D-E23178C75F6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5243,7 @@
         <xdr:cNvPr id="106" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8D7EA0-D051-4F2D-BD81-B49F3DD38C7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F8D7EA0-D051-4F2D-BD81-B49F3DD38C7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5286,7 @@
         <xdr:cNvPr id="107" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2C7FB2-C37B-4D71-9861-BDD66B7212BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F2C7FB2-C37B-4D71-9861-BDD66B7212BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5329,7 @@
         <xdr:cNvPr id="108" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F556BCF-C94E-4689-B373-77E129D9CC3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F556BCF-C94E-4689-B373-77E129D9CC3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5276,7 +5372,7 @@
         <xdr:cNvPr id="109" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B21C6C6-CD49-46F9-9FC6-D65E8677EABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B21C6C6-CD49-46F9-9FC6-D65E8677EABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5415,7 @@
         <xdr:cNvPr id="110" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8130F854-1753-42BE-A75C-BA419C5F102A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8130F854-1753-42BE-A75C-BA419C5F102A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5362,7 +5458,7 @@
         <xdr:cNvPr id="111" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A44BB4-3919-444B-ACC7-7D250A37A3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A44BB4-3919-444B-ACC7-7D250A37A3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5405,7 +5501,7 @@
         <xdr:cNvPr id="112" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F22BDF1-81B0-41DC-A289-4CE265AC6215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F22BDF1-81B0-41DC-A289-4CE265AC6215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5448,7 +5544,7 @@
         <xdr:cNvPr id="113" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C8242E-E81E-42C9-B50D-B3D35231FF93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C8242E-E81E-42C9-B50D-B3D35231FF93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5491,7 +5587,7 @@
         <xdr:cNvPr id="114" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6504A0CF-4F10-4DF4-8820-FAEE6490D2AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6504A0CF-4F10-4DF4-8820-FAEE6490D2AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5534,7 +5630,7 @@
         <xdr:cNvPr id="115" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F985494A-08A2-4905-A5AB-66597D15FBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F985494A-08A2-4905-A5AB-66597D15FBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5577,7 +5673,7 @@
         <xdr:cNvPr id="116" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6280453A-D3D9-4211-B09C-455FEA91D544}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6280453A-D3D9-4211-B09C-455FEA91D544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5716,7 @@
         <xdr:cNvPr id="117" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B69A5FE-5540-422E-9F02-581BD1EA0557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B69A5FE-5540-422E-9F02-581BD1EA0557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5759,7 @@
         <xdr:cNvPr id="118" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201CD036-B260-46B7-ACD4-ACBC5504A8D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{201CD036-B260-46B7-ACD4-ACBC5504A8D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5802,7 @@
         <xdr:cNvPr id="119" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B877FD-977D-48D5-A0FD-D699E4F60F74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B877FD-977D-48D5-A0FD-D699E4F60F74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5845,7 @@
         <xdr:cNvPr id="120" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFB2781-28B0-47EA-A568-ACCA2243A41C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAFB2781-28B0-47EA-A568-ACCA2243A41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5888,7 @@
         <xdr:cNvPr id="121" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D77520-E487-4AF0-A4CD-B95A395ADC70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1D77520-E487-4AF0-A4CD-B95A395ADC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5931,7 @@
         <xdr:cNvPr id="122" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A46C83A-1E52-413E-9227-9A7EC2DE9524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A46C83A-1E52-413E-9227-9A7EC2DE9524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5974,7 @@
         <xdr:cNvPr id="123" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6398AF-32E4-441B-8791-E89028C3C3BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F6398AF-32E4-441B-8791-E89028C3C3BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +6017,7 @@
         <xdr:cNvPr id="124" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E68827-C6BA-41E7-8393-F817F3B0159A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46E68827-C6BA-41E7-8393-F817F3B0159A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +6060,7 @@
         <xdr:cNvPr id="125" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B62CCC-7BC4-45F0-8DAD-B5918962C322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26B62CCC-7BC4-45F0-8DAD-B5918962C322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,7 +6103,7 @@
         <xdr:cNvPr id="126" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3195B5-4C41-4D26-9044-02094964EF86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3195B5-4C41-4D26-9044-02094964EF86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6050,7 +6146,7 @@
         <xdr:cNvPr id="127" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653F91C6-1FBA-4C94-9B5C-63712EA9C8DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{653F91C6-1FBA-4C94-9B5C-63712EA9C8DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6093,7 +6189,7 @@
         <xdr:cNvPr id="128" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC7B600-07D3-4156-BF96-E42AB63DC896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CC7B600-07D3-4156-BF96-E42AB63DC896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6136,7 +6232,7 @@
         <xdr:cNvPr id="129" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583306C8-E937-4A21-80C1-D38F647AF00E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{583306C8-E937-4A21-80C1-D38F647AF00E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6275,7 @@
         <xdr:cNvPr id="130" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D24BC2-2E66-4F1A-94A9-EB8C46EAA651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D24BC2-2E66-4F1A-94A9-EB8C46EAA651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,7 +6318,7 @@
         <xdr:cNvPr id="131" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ED3248-9FF6-4A20-B4F6-6E78EEBC986E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73ED3248-9FF6-4A20-B4F6-6E78EEBC986E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,7 +6361,7 @@
         <xdr:cNvPr id="132" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42DAEE-013E-408A-9FD3-A873F80F9AC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC42DAEE-013E-408A-9FD3-A873F80F9AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6404,7 @@
         <xdr:cNvPr id="133" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1683CEA6-F04A-46E3-A9A7-5AFA06ACCDFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1683CEA6-F04A-46E3-A9A7-5AFA06ACCDFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6447,7 @@
         <xdr:cNvPr id="134" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A46998-D2D7-4B04-AC7E-6292FC4C7851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A46998-D2D7-4B04-AC7E-6292FC4C7851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,7 +6490,7 @@
         <xdr:cNvPr id="135" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FD1453-C0C8-45A7-AD34-B141A713955B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23FD1453-C0C8-45A7-AD34-B141A713955B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6437,7 +6533,7 @@
         <xdr:cNvPr id="136" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F41B409-C6FF-46A1-B5AB-5A5FBB727FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F41B409-C6FF-46A1-B5AB-5A5FBB727FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6576,7 @@
         <xdr:cNvPr id="137" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EC26A2-2D67-4C4E-849E-E78C8601824F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10EC26A2-2D67-4C4E-849E-E78C8601824F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6523,7 +6619,7 @@
         <xdr:cNvPr id="138" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E33BE7F-EC5C-4E87-83F2-259615B406BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E33BE7F-EC5C-4E87-83F2-259615B406BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6566,7 +6662,7 @@
         <xdr:cNvPr id="139" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99F5407-E232-44AC-8593-A0E6C399B764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D99F5407-E232-44AC-8593-A0E6C399B764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6609,7 +6705,7 @@
         <xdr:cNvPr id="140" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF91C9CF-33C3-422D-BAE0-266B7579372C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF91C9CF-33C3-422D-BAE0-266B7579372C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6748,7 @@
         <xdr:cNvPr id="141" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759FA513-037C-4E61-B280-77B02B0DD5B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{759FA513-037C-4E61-B280-77B02B0DD5B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6695,7 +6791,7 @@
         <xdr:cNvPr id="142" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23D783F-9B27-4C60-8805-624A72F052E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A23D783F-9B27-4C60-8805-624A72F052E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6738,7 +6834,7 @@
         <xdr:cNvPr id="143" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7EDBBD-41E6-45ED-88E9-9F82E346449A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED7EDBBD-41E6-45ED-88E9-9F82E346449A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6781,7 +6877,7 @@
         <xdr:cNvPr id="144" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A14BF46-5176-48AE-BF38-1AF0D67ED562}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A14BF46-5176-48AE-BF38-1AF0D67ED562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6824,7 +6920,7 @@
         <xdr:cNvPr id="145" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAB9095-720E-41D5-BE26-C89B1DD4EE96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BAB9095-720E-41D5-BE26-C89B1DD4EE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6963,7 @@
         <xdr:cNvPr id="146" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076CF4BB-5BF0-4156-BCEC-06D128A13179}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{076CF4BB-5BF0-4156-BCEC-06D128A13179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,7 +7006,7 @@
         <xdr:cNvPr id="147" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37114D9B-38D5-4984-92DC-6AFE26ED8C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37114D9B-38D5-4984-92DC-6AFE26ED8C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6953,7 +7049,7 @@
         <xdr:cNvPr id="148" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60AFFEA-48F6-4EF8-A1A1-729A26DCD0AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A60AFFEA-48F6-4EF8-A1A1-729A26DCD0AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6996,7 +7092,7 @@
         <xdr:cNvPr id="149" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301B5DE0-823C-4393-A3E9-79A25E6E71ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301B5DE0-823C-4393-A3E9-79A25E6E71ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +7135,7 @@
         <xdr:cNvPr id="150" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7641AA03-7361-47EB-B06C-57AC5D591056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7641AA03-7361-47EB-B06C-57AC5D591056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7178,7 @@
         <xdr:cNvPr id="151" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A18168-349F-48B4-B947-B4214B006036}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4A18168-349F-48B4-B947-B4214B006036}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7125,7 +7221,7 @@
         <xdr:cNvPr id="152" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C52DD1-B5FA-410C-B8B5-56DE4C970606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19C52DD1-B5FA-410C-B8B5-56DE4C970606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7168,7 +7264,7 @@
         <xdr:cNvPr id="153" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EF96EC-53C1-41C4-A107-FC25503673A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50EF96EC-53C1-41C4-A107-FC25503673A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7211,7 +7307,7 @@
         <xdr:cNvPr id="154" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12E1807-7B67-48F5-91B7-079AF01BC3E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D12E1807-7B67-48F5-91B7-079AF01BC3E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7254,7 +7350,7 @@
         <xdr:cNvPr id="155" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D803C8D-1992-4082-8CBB-BBC4A2075FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D803C8D-1992-4082-8CBB-BBC4A2075FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7297,7 +7393,7 @@
         <xdr:cNvPr id="156" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9B195F-C8C7-4135-9976-0F944FCF5522}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E9B195F-C8C7-4135-9976-0F944FCF5522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7340,7 +7436,7 @@
         <xdr:cNvPr id="157" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7E0824-1AC2-45B5-998F-9B370297DB44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC7E0824-1AC2-45B5-998F-9B370297DB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7479,7 @@
         <xdr:cNvPr id="158" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0900E45-A78D-4C6E-A563-AC8A46AC9A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0900E45-A78D-4C6E-A563-AC8A46AC9A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7426,7 +7522,7 @@
         <xdr:cNvPr id="159" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0EA12E-696E-4876-92EF-8BD47CA1B1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A0EA12E-696E-4876-92EF-8BD47CA1B1AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7469,7 +7565,7 @@
         <xdr:cNvPr id="160" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB67774A-2733-4A5E-8024-8A671711D4B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB67774A-2733-4A5E-8024-8A671711D4B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7512,7 +7608,7 @@
         <xdr:cNvPr id="161" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8330FA-F5B1-4CA4-9517-46E7428949FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A8330FA-F5B1-4CA4-9517-46E7428949FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7555,7 +7651,7 @@
         <xdr:cNvPr id="162" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C55D037-356E-44EB-9713-B43F5B4A9BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C55D037-356E-44EB-9713-B43F5B4A9BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7598,7 +7694,7 @@
         <xdr:cNvPr id="163" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572CEF85-737A-474A-B159-E9C562211E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{572CEF85-737A-474A-B159-E9C562211E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7641,7 +7737,7 @@
         <xdr:cNvPr id="164" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63CB991-031B-4051-9603-A80919472416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C63CB991-031B-4051-9603-A80919472416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,7 +7780,7 @@
         <xdr:cNvPr id="165" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A090F32-9A72-4C5A-8865-244931B2A265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A090F32-9A72-4C5A-8865-244931B2A265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7727,7 +7823,7 @@
         <xdr:cNvPr id="166" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3A6726-D6B3-40C8-9680-EA2A2BA3195E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3A6726-D6B3-40C8-9680-EA2A2BA3195E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,7 +7866,7 @@
         <xdr:cNvPr id="167" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0871D5-C732-4E75-97CA-232380DEC5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE0871D5-C732-4E75-97CA-232380DEC5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7813,7 +7909,7 @@
         <xdr:cNvPr id="168" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C73D6E-3ED1-4833-890A-F26B6B84D9B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34C73D6E-3ED1-4833-890A-F26B6B84D9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +7952,7 @@
         <xdr:cNvPr id="169" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3209C7-B262-44C4-8645-3DEF097522A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF3209C7-B262-44C4-8645-3DEF097522A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7899,7 +7995,7 @@
         <xdr:cNvPr id="170" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82386B51-CE0E-43D9-AA3A-9A3601715778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82386B51-CE0E-43D9-AA3A-9A3601715778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7942,7 +8038,7 @@
         <xdr:cNvPr id="171" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C99C51-ADB2-49E6-B592-2515B4218F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C99C51-ADB2-49E6-B592-2515B4218F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7985,7 +8081,7 @@
         <xdr:cNvPr id="172" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C71CF0-2BDC-4ACE-818F-04DBDF958206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C71CF0-2BDC-4ACE-818F-04DBDF958206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8124,7 @@
         <xdr:cNvPr id="173" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F65BA4C-2D23-40BA-9570-A682BF826CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F65BA4C-2D23-40BA-9570-A682BF826CEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8071,7 +8167,7 @@
         <xdr:cNvPr id="174" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E7C2D1-B7F4-484E-B61C-0D5ECD11DE91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21E7C2D1-B7F4-484E-B61C-0D5ECD11DE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8114,7 +8210,7 @@
         <xdr:cNvPr id="175" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720EF9F7-2228-4D71-9091-EC7F70536B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{720EF9F7-2228-4D71-9091-EC7F70536B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,26 +8244,69 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02DB2B55-B2B4-4B14-AE71-C05B87C4B9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="36576000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DB2B55-B2B4-4B14-AE71-C05B87C4B9E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="381000" y="36576000"/>
+        <xdr:cNvPr id="177" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{228EE11D-01AD-4899-9354-F23FD73E010B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15497175" y="36385500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8197,10 +8336,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228EE11D-01AD-4899-9354-F23FD73E010B}"/>
+        <xdr:cNvPr id="178" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5800F126-59C0-4805-8D8E-30DB12EFDE75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8240,10 +8379,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5800F126-59C0-4805-8D8E-30DB12EFDE75}"/>
+        <xdr:cNvPr id="179" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97845FCA-C2B6-409D-8D31-B5A5E898EB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8283,10 +8422,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97845FCA-C2B6-409D-8D31-B5A5E898EB96}"/>
+        <xdr:cNvPr id="180" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EEC4C13-07F5-446D-804D-94BC9C4B7385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8326,10 +8465,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEC4C13-07F5-446D-804D-94BC9C4B7385}"/>
+        <xdr:cNvPr id="181" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3604453A-FBF3-4E64-892C-0E7972E74FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8369,10 +8508,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3604453A-FBF3-4E64-892C-0E7972E74FDD}"/>
+        <xdr:cNvPr id="182" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C275B0FB-2E38-462F-AECE-BF08FC847D3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8412,10 +8551,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C275B0FB-2E38-462F-AECE-BF08FC847D3F}"/>
+        <xdr:cNvPr id="183" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54DFA8AA-3A44-4ABD-82B7-F8C2242CBA5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8455,10 +8594,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DFA8AA-3A44-4ABD-82B7-F8C2242CBA5F}"/>
+        <xdr:cNvPr id="184" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B718FD-B4A7-42F7-96C8-86017B49A937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8498,10 +8637,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B718FD-B4A7-42F7-96C8-86017B49A937}"/>
+        <xdr:cNvPr id="185" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF67EF28-845C-4853-B485-9E29EECC43E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8541,10 +8680,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF67EF28-845C-4853-B485-9E29EECC43E4}"/>
+        <xdr:cNvPr id="186" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE82CA16-4E0A-42CA-B0DC-6433AE43DA82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8584,10 +8723,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE82CA16-4E0A-42CA-B0DC-6433AE43DA82}"/>
+        <xdr:cNvPr id="187" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DC633AB-B9A0-4190-A80B-53D70CE108ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8627,10 +8766,10 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC633AB-B9A0-4190-A80B-53D70CE108ED}"/>
+        <xdr:cNvPr id="188" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CE6F763-FCA6-4676-B203-765C6B01AFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8664,49 +8803,6 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE6F763-FCA6-4676-B203-765C6B01AFE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15497175" y="36385500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8716,7 +8812,7 @@
         <xdr:cNvPr id="189" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC282AF0-7F3F-4DB1-84C3-D794D1EED6E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC282AF0-7F3F-4DB1-84C3-D794D1EED6E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8750,7 +8846,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -8759,7 +8855,7 @@
         <xdr:cNvPr id="190" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87A9E0-D546-4EAE-A0ED-A81EF1BC755F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D87A9E0-D546-4EAE-A0ED-A81EF1BC755F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8802,7 +8898,7 @@
         <xdr:cNvPr id="191" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6676D9FA-DFAD-40F4-AC09-F6354C7B9458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6676D9FA-DFAD-40F4-AC09-F6354C7B9458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8836,7 +8932,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -8845,7 +8941,7 @@
         <xdr:cNvPr id="192" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62D14B4-E050-40CD-8C5C-E8FAB04A18C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C62D14B4-E050-40CD-8C5C-E8FAB04A18C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8888,7 +8984,7 @@
         <xdr:cNvPr id="193" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3AAD7C-555D-443A-9AEA-99E4CF6A00EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE3AAD7C-555D-443A-9AEA-99E4CF6A00EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,7 +9027,7 @@
         <xdr:cNvPr id="194" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4237D7-CB34-4E11-B10C-5D71302A6A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4237D7-CB34-4E11-B10C-5D71302A6A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8974,7 +9070,7 @@
         <xdr:cNvPr id="195" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0347D55B-AC13-4F73-AD6E-195CBB45F59A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0347D55B-AC13-4F73-AD6E-195CBB45F59A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9017,7 +9113,7 @@
         <xdr:cNvPr id="196" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6856E4A2-822F-4259-AC1C-8FB4E3A70799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6856E4A2-822F-4259-AC1C-8FB4E3A70799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9156,7 @@
         <xdr:cNvPr id="197" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955F2A18-6EDC-4922-A26D-B87B3CDFE062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{955F2A18-6EDC-4922-A26D-B87B3CDFE062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9103,7 +9199,7 @@
         <xdr:cNvPr id="198" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379C03B4-0FCB-488B-A92E-8822503146FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{379C03B4-0FCB-488B-A92E-8822503146FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9146,7 +9242,7 @@
         <xdr:cNvPr id="199" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484953CA-8A25-4762-BDC1-711FD9CC1CFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{484953CA-8A25-4762-BDC1-711FD9CC1CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9189,7 +9285,7 @@
         <xdr:cNvPr id="200" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53E080E-084A-4721-ABCA-BC7550BD85FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F53E080E-084A-4721-ABCA-BC7550BD85FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9232,7 +9328,7 @@
         <xdr:cNvPr id="201" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BD505-2885-4DC9-BDE2-993BDFD52876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{970BD505-2885-4DC9-BDE2-993BDFD52876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9275,7 +9371,7 @@
         <xdr:cNvPr id="202" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A88924-F0D2-4FC5-9DC5-34C46F5A9AE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42A88924-F0D2-4FC5-9DC5-34C46F5A9AE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9318,7 +9414,7 @@
         <xdr:cNvPr id="203" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72B805-3834-4F88-83AC-9753558E74D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA72B805-3834-4F88-83AC-9753558E74D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9361,7 +9457,7 @@
         <xdr:cNvPr id="204" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81524F5C-8C3E-443E-9A2F-AF399886D8DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81524F5C-8C3E-443E-9A2F-AF399886D8DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9404,7 +9500,7 @@
         <xdr:cNvPr id="205" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC6131C-E21B-4B4F-9A3A-B000095CF6A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AC6131C-E21B-4B4F-9A3A-B000095CF6A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9447,7 +9543,7 @@
         <xdr:cNvPr id="206" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74532559-B6C4-4853-85E2-7DC6101333FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74532559-B6C4-4853-85E2-7DC6101333FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9490,7 +9586,7 @@
         <xdr:cNvPr id="207" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEBBB6D-4063-44DE-B35B-8FB130ABAD82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CEBBB6D-4063-44DE-B35B-8FB130ABAD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9533,7 +9629,7 @@
         <xdr:cNvPr id="208" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0648B1D2-BF3C-4090-8AB8-27B58839B413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0648B1D2-BF3C-4090-8AB8-27B58839B413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9576,7 +9672,7 @@
         <xdr:cNvPr id="209" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C88FA7-EC2E-490B-A468-E14BE710112E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06C88FA7-EC2E-490B-A468-E14BE710112E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9619,7 +9715,7 @@
         <xdr:cNvPr id="210" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7383899A-90A2-452D-9F4D-BC3527533D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7383899A-90A2-452D-9F4D-BC3527533D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9653,7 +9749,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -9662,7 +9758,7 @@
         <xdr:cNvPr id="211" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09246FEF-3068-4DA1-A9FB-B1B6D20705C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09246FEF-3068-4DA1-A9FB-B1B6D20705C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9705,7 +9801,7 @@
         <xdr:cNvPr id="212" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EF39AE-5CF0-4108-8204-3A0838249881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50EF39AE-5CF0-4108-8204-3A0838249881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9748,7 +9844,7 @@
         <xdr:cNvPr id="225" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E572A79-14C9-4892-A8F7-60170E49E817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10070,7 +10166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10078,10 +10174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P149"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10103,32 +10199,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="20"/>
+      <c r="A2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="20"/>
+      <c r="A3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="20"/>
+      <c r="A4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -10155,28 +10254,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>31</v>
@@ -10188,39 +10287,39 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="2" t="s">
@@ -10228,7 +10327,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>15</v>
@@ -10239,14 +10338,14 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
@@ -10258,7 +10357,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>17</v>
@@ -10269,14 +10368,14 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
@@ -10290,7 +10389,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>37</v>
@@ -10301,14 +10400,14 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
@@ -10320,7 +10419,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>18</v>
@@ -10331,18 +10430,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
@@ -10350,7 +10449,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>19</v>
@@ -10366,18 +10465,18 @@
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
@@ -10393,7 +10492,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
@@ -10405,7 +10504,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
@@ -10421,13 +10520,13 @@
     </row>
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -10438,8 +10537,8 @@
       <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
+      <c r="G16" s="3">
+        <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>23</v>
@@ -10455,7 +10554,7 @@
     </row>
     <row r="17" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
@@ -10472,7 +10571,9 @@
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>30</v>
       </c>
@@ -10487,22 +10588,24 @@
     </row>
     <row r="18" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>34</v>
       </c>
@@ -10517,20 +10620,24 @@
     </row>
     <row r="19" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="7" t="s">
         <v>41</v>
       </c>
@@ -10545,17 +10652,21 @@
     </row>
     <row r="20" spans="1:16" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="7" t="s">
         <v>43</v>
       </c>
@@ -10570,18 +10681,22 @@
     </row>
     <row r="21" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>50</v>
       </c>
@@ -10596,18 +10711,22 @@
     </row>
     <row r="22" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>46</v>
       </c>
@@ -10622,18 +10741,22 @@
     </row>
     <row r="23" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>48</v>
       </c>
@@ -10648,18 +10771,22 @@
     </row>
     <row r="24" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
@@ -10674,18 +10801,22 @@
     </row>
     <row r="25" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>53</v>
       </c>
@@ -10698,12 +10829,29 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="7"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -10713,15 +10861,29 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
@@ -10731,13 +10893,27 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
+    <row r="28" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -10747,13 +10923,24 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
+    <row r="29" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -10798,7 +10985,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="2"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10812,10 +10999,12 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
@@ -10828,7 +11017,10 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="2"/>
@@ -10907,7 +11099,7 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="8"/>
+      <c r="E39" s="2"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -10915,7 +11107,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
@@ -11009,7 +11201,7 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="2"/>
       <c r="G46" s="8"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -11026,7 +11218,7 @@
       <c r="B47" s="8"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
@@ -11120,7 +11312,7 @@
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="2"/>
       <c r="G53" s="8"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -11137,7 +11329,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
@@ -11231,7 +11423,7 @@
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="2"/>
       <c r="G60" s="8"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -11246,7 +11438,7 @@
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -11262,7 +11454,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
@@ -11356,7 +11548,7 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="2"/>
       <c r="G68" s="8"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -11371,7 +11563,7 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="8"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -11387,7 +11579,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
@@ -11481,7 +11673,7 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="8"/>
+      <c r="E76" s="2"/>
       <c r="G76" s="8"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -11496,7 +11688,7 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="8"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -11512,7 +11704,7 @@
       <c r="B78" s="8"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
@@ -11606,7 +11798,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="8"/>
+      <c r="E84" s="2"/>
       <c r="G84" s="8"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -11621,7 +11813,7 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="8"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -11636,7 +11828,7 @@
       <c r="A86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
@@ -11716,7 +11908,7 @@
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="2"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -11731,7 +11923,7 @@
       <c r="A92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
@@ -11811,7 +12003,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -11826,7 +12018,7 @@
       <c r="A98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
@@ -11906,7 +12098,7 @@
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="2"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -11921,7 +12113,7 @@
       <c r="A104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
@@ -12001,7 +12193,7 @@
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="2"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -12016,7 +12208,7 @@
       <c r="A110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
@@ -12096,7 +12288,7 @@
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="2"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -12111,7 +12303,7 @@
       <c r="A116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
@@ -12191,7 +12383,7 @@
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="2"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -12207,7 +12399,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
@@ -12301,7 +12493,7 @@
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="7"/>
+      <c r="E128" s="2"/>
       <c r="G128" s="9"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -12318,7 +12510,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
@@ -12412,7 +12604,7 @@
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="7"/>
+      <c r="E135" s="2"/>
       <c r="G135" s="9"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -12429,7 +12621,7 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
@@ -12523,7 +12715,7 @@
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="7"/>
+      <c r="E142" s="2"/>
       <c r="G142" s="9"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -12554,7 +12746,7 @@
       <c r="A144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
@@ -12634,7 +12826,7 @@
     <row r="149" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="7"/>
+      <c r="E149" s="2"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -12645,12 +12837,15 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
     </row>
+    <row r="150" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E150" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="D8:D15"/>
-    <mergeCell ref="D18:D26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
